--- a/data/trans_orig/P62AS1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P62AS1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F14876FE-F0A1-42B5-8C42-531A484F702E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C16A6D1-CF9C-44B7-BC36-639FB65CE5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4C9C0DA5-C877-41B4-BCAC-8EFC4852E72B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AEA55145-AF15-45E1-80FF-0179AD7010D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="815">
   <si>
     <t>Población según el tipo de pensión que recibe / respuesta 1 en 2007 (Tasa respuesta: 20,17%)</t>
   </si>
@@ -79,2428 +79,2410 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,99%</t>
+    <t>7,89%</t>
   </si>
   <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>16,14%</t>
+    <t>15,91%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>Invalidez o incapacidad permanente</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>Viudedad</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>Jubilacion</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2015 (Tasa respuesta: 23,41%)</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>Invalidez o incapacidad permanente</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>Viudedad</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>Jubilacion</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>12,11%</t>
   </si>
   <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2015 (Tasa respuesta: 23,41%)</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>7,69%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
     <t>8,6%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>10,07%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,62%</t>
+    <t>0,52%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>42,92%</t>
   </si>
   <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
   </si>
   <si>
     <t>65,25%</t>
   </si>
   <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
   </si>
 </sst>
 </file>
@@ -2912,7 +2894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CBE87C-EB02-44FF-B033-8003761ED608}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D209E9-6FC4-4D3B-86B6-1F870CDE7948}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3825,10 +3807,10 @@
         <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -3837,13 +3819,13 @@
         <v>6777</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3840,13 @@
         <v>3851</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -3873,13 +3855,13 @@
         <v>4845</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -3888,13 +3870,13 @@
         <v>8696</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,7 +3897,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -3924,13 +3906,13 @@
         <v>28246</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -3939,13 +3921,13 @@
         <v>28246</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3942,13 @@
         <v>64297</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -3975,13 +3957,13 @@
         <v>26815</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -3990,13 +3972,13 @@
         <v>91112</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,7 +4034,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4064,13 +4046,13 @@
         <v>886</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -4079,13 +4061,13 @@
         <v>999</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -4094,13 +4076,13 @@
         <v>1885</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4097,13 @@
         <v>4516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -4130,13 +4112,13 @@
         <v>7016</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4145,13 +4127,13 @@
         <v>11532</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,7 +4154,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -4181,13 +4163,13 @@
         <v>13969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -4196,13 +4178,13 @@
         <v>13969</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,10 +4578,10 @@
         <v>206</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -4611,10 +4593,10 @@
         <v>65</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4611,13 @@
         <v>9369</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -4644,13 +4626,13 @@
         <v>9861</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M35" s="7">
         <v>19</v>
@@ -4659,13 +4641,13 @@
         <v>19230</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4677,13 @@
         <v>57203</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M36" s="7">
         <v>55</v>
@@ -4710,13 +4692,13 @@
         <v>57203</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4713,13 @@
         <v>133458</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>48</v>
@@ -4746,13 +4728,13 @@
         <v>47628</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M37" s="7">
         <v>184</v>
@@ -4761,13 +4743,13 @@
         <v>181087</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,7 +4805,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4841,7 +4823,7 @@
         <v>23</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -4853,10 +4835,10 @@
         <v>206</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M39" s="7">
         <v>4</v>
@@ -4865,13 +4847,13 @@
         <v>4581</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4868,13 @@
         <v>23544</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H40" s="7">
         <v>12</v>
@@ -4901,13 +4883,13 @@
         <v>13060</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M40" s="7">
         <v>34</v>
@@ -4916,13 +4898,13 @@
         <v>36604</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4919,13 @@
         <v>965</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H41" s="7">
         <v>48</v>
@@ -4952,13 +4934,13 @@
         <v>52280</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M41" s="7">
         <v>49</v>
@@ -4967,13 +4949,13 @@
         <v>53245</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4970,13 @@
         <v>143634</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H42" s="7">
         <v>55</v>
@@ -5003,13 +4985,13 @@
         <v>58734</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M42" s="7">
         <v>203</v>
@@ -5018,13 +5000,13 @@
         <v>202368</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5074,13 @@
         <v>6458</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H44" s="7">
         <v>26</v>
@@ -5107,10 +5089,10 @@
         <v>27202</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>270</v>
@@ -5128,7 +5110,7 @@
         <v>272</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5125,13 @@
         <v>72092</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H45" s="7">
         <v>46</v>
@@ -5158,13 +5140,13 @@
         <v>47411</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M45" s="7">
         <v>116</v>
@@ -5173,13 +5155,13 @@
         <v>119503</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5176,13 @@
         <v>2025</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H46" s="7">
         <v>267</v>
@@ -5209,13 +5191,13 @@
         <v>280443</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M46" s="7">
         <v>269</v>
@@ -5224,7 +5206,7 @@
         <v>282468</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>287</v>
+        <v>170</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>288</v>
@@ -5361,7 +5343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DC4989-2EF6-448B-88BC-26CF1C8DCF8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6625729C-0E6E-4FF9-BEBE-8640B2B67972}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5748,7 +5730,7 @@
         <v>309</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5745,13 @@
         <v>27578</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5778,13 +5760,13 @@
         <v>12068</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -5793,13 +5775,13 @@
         <v>39646</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5796,13 @@
         <v>964</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -5829,13 +5811,13 @@
         <v>46562</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
@@ -5844,13 +5826,13 @@
         <v>47525</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5847,13 @@
         <v>95744</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -5880,13 +5862,13 @@
         <v>13858</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M12" s="7">
         <v>97</v>
@@ -5895,13 +5877,13 @@
         <v>109602</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5951,13 @@
         <v>3929</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5984,13 +5966,13 @@
         <v>5598</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>112</v>
+        <v>341</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -5999,13 +5981,13 @@
         <v>9527</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6002,13 @@
         <v>13053</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H15" s="7">
         <v>4</v>
@@ -6035,13 +6017,13 @@
         <v>4193</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -6050,13 +6032,13 @@
         <v>17245</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6053,13 @@
         <v>2075</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -6086,13 +6068,13 @@
         <v>38393</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -6101,13 +6083,13 @@
         <v>40469</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6104,13 @@
         <v>63187</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -6137,13 +6119,13 @@
         <v>27377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -6152,13 +6134,13 @@
         <v>90564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,10 +6208,10 @@
         <v>19792</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>371</v>
@@ -6244,10 +6226,10 @@
         <v>372</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -6256,13 +6238,13 @@
         <v>48022</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6259,13 @@
         <v>27679</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -6292,13 +6274,13 @@
         <v>16815</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -6307,13 +6289,13 @@
         <v>44494</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,7 +6316,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H21" s="7">
         <v>52</v>
@@ -6343,13 +6325,13 @@
         <v>55192</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M21" s="7">
         <v>52</v>
@@ -6358,13 +6340,13 @@
         <v>55192</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>391</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>392</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6361,13 @@
         <v>130993</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>394</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>330</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -6394,13 +6376,13 @@
         <v>69280</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
@@ -6409,13 +6391,13 @@
         <v>200273</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,7 +6453,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6483,13 +6465,13 @@
         <v>3960</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -6498,13 +6480,13 @@
         <v>6886</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -6513,13 +6495,13 @@
         <v>10846</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,13 +6516,13 @@
         <v>5388</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>411</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -6549,13 +6531,13 @@
         <v>4985</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -6564,13 +6546,13 @@
         <v>10373</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,7 +6573,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6600,13 +6582,13 @@
         <v>16526</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -6615,13 +6597,13 @@
         <v>16526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,13 +6618,13 @@
         <v>40606</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H27" s="7">
         <v>17</v>
@@ -6651,13 +6633,13 @@
         <v>18622</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M27" s="7">
         <v>53</v>
@@ -6666,13 +6648,13 @@
         <v>59228</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6740,13 +6722,13 @@
         <v>1036</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>435</v>
+        <v>350</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -6755,13 +6737,13 @@
         <v>4965</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -6770,13 +6752,13 @@
         <v>6001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>238</v>
+        <v>437</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6791,13 +6773,13 @@
         <v>11222</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>444</v>
+        <v>348</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -6806,13 +6788,13 @@
         <v>2103</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -6821,13 +6803,13 @@
         <v>13325</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,7 +6830,7 @@
         <v>23</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>450</v>
+        <v>341</v>
       </c>
       <c r="H31" s="7">
         <v>33</v>
@@ -6857,13 +6839,13 @@
         <v>33710</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="M31" s="7">
         <v>33</v>
@@ -6872,13 +6854,13 @@
         <v>33709</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6875,13 @@
         <v>62064</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -6908,13 +6890,13 @@
         <v>19330</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M32" s="7">
         <v>79</v>
@@ -6923,13 +6905,13 @@
         <v>81394</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +6979,13 @@
         <v>12097</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H34" s="7">
         <v>13</v>
@@ -7012,13 +6994,13 @@
         <v>14549</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>116</v>
+        <v>465</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -7027,13 +7009,13 @@
         <v>26646</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>470</v>
+        <v>63</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7048,13 +7030,13 @@
         <v>23392</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>475</v>
+        <v>311</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -7063,13 +7045,13 @@
         <v>16497</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M35" s="7">
         <v>34</v>
@@ -7078,13 +7060,13 @@
         <v>39889</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,7 +7087,7 @@
         <v>23</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H36" s="7">
         <v>55</v>
@@ -7114,13 +7096,13 @@
         <v>60393</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="M36" s="7">
         <v>55</v>
@@ -7129,13 +7111,13 @@
         <v>60393</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7132,13 @@
         <v>123615</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H37" s="7">
         <v>52</v>
@@ -7165,13 +7147,13 @@
         <v>58703</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="M37" s="7">
         <v>163</v>
@@ -7180,13 +7162,13 @@
         <v>182317</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,7 +7224,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -7254,13 +7236,13 @@
         <v>10397</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="H39" s="7">
         <v>19</v>
@@ -7269,13 +7251,13 @@
         <v>19451</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="M39" s="7">
         <v>29</v>
@@ -7284,13 +7266,13 @@
         <v>29848</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7287,13 @@
         <v>34637</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H40" s="7">
         <v>19</v>
@@ -7320,13 +7302,13 @@
         <v>20732</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="M40" s="7">
         <v>49</v>
@@ -7335,13 +7317,13 @@
         <v>55369</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,7 +7344,7 @@
         <v>23</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H41" s="7">
         <v>51</v>
@@ -7371,13 +7353,13 @@
         <v>55856</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M41" s="7">
         <v>51</v>
@@ -7386,13 +7368,13 @@
         <v>55856</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>513</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>519</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,13 +7389,13 @@
         <v>149650</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H42" s="7">
         <v>53</v>
@@ -7422,13 +7404,13 @@
         <v>58815</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="M42" s="7">
         <v>184</v>
@@ -7437,13 +7419,13 @@
         <v>208464</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,13 +7493,13 @@
         <v>59271</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>529</v>
+        <v>315</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>530</v>
+        <v>117</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H44" s="7">
         <v>88</v>
@@ -7526,13 +7508,13 @@
         <v>96076</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="M44" s="7">
         <v>140</v>
@@ -7544,10 +7526,10 @@
         <v>59</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>536</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,13 +7544,13 @@
         <v>142949</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>248</v>
+        <v>528</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H45" s="7">
         <v>68</v>
@@ -7577,13 +7559,13 @@
         <v>77392</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="M45" s="7">
         <v>197</v>
@@ -7592,13 +7574,13 @@
         <v>220341</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,13 +7595,13 @@
         <v>3039</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="H46" s="7">
         <v>285</v>
@@ -7628,13 +7610,13 @@
         <v>306632</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="M46" s="7">
         <v>287</v>
@@ -7643,13 +7625,13 @@
         <v>309671</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,13 +7646,13 @@
         <v>665857</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="H47" s="7">
         <v>246</v>
@@ -7679,13 +7661,13 @@
         <v>265986</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>557</v>
+        <v>455</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="M47" s="7">
         <v>849</v>
@@ -7694,13 +7676,13 @@
         <v>931843</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,7 +7762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5069EE-EAF6-41F9-9E40-3FF74FF2729A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C43475C-B17A-41A4-84F2-373A8E1DF55F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7797,7 +7779,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7904,13 +7886,13 @@
         <v>11199</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -7919,13 +7901,13 @@
         <v>16211</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -7934,13 +7916,13 @@
         <v>27410</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7961,7 +7943,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -7970,13 +7952,13 @@
         <v>3846</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -7988,10 +7970,10 @@
         <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>188</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8012,7 +7994,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>438</v>
+        <v>562</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -8021,13 +8003,13 @@
         <v>10997</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>118</v>
+        <v>569</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>359</v>
+        <v>570</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -8036,13 +8018,13 @@
         <v>10997</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>269</v>
+        <v>572</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8057,13 +8039,13 @@
         <v>47053</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -8072,13 +8054,13 @@
         <v>23921</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -8087,13 +8069,13 @@
         <v>70974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,13 +8143,13 @@
         <v>18302</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>589</v>
+        <v>214</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -8176,13 +8158,13 @@
         <v>6219</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -8191,13 +8173,13 @@
         <v>24521</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8212,13 +8194,13 @@
         <v>12645</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -8227,13 +8209,13 @@
         <v>6399</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -8242,13 +8224,13 @@
         <v>19044</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>391</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8278,13 +8260,13 @@
         <v>52702</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -8293,13 +8275,13 @@
         <v>52702</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8314,13 +8296,13 @@
         <v>117624</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -8329,13 +8311,13 @@
         <v>26312</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>614</v>
+        <v>154</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="M12" s="7">
         <v>140</v>
@@ -8344,13 +8326,13 @@
         <v>143937</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8418,13 +8400,13 @@
         <v>969</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>613</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -8433,13 +8415,13 @@
         <v>7483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>621</v>
+        <v>411</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -8448,13 +8430,13 @@
         <v>8452</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8469,13 +8451,13 @@
         <v>5770</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>628</v>
+        <v>213</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -8484,13 +8466,13 @@
         <v>3280</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -8499,13 +8481,13 @@
         <v>9050</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>634</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8520,13 +8502,13 @@
         <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -8535,13 +8517,13 @@
         <v>20595</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>425</v>
+        <v>628</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -8553,10 +8535,10 @@
         <v>631</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8571,13 +8553,13 @@
         <v>82267</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -8586,13 +8568,13 @@
         <v>48537</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>645</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="M17" s="7">
         <v>132</v>
@@ -8601,13 +8583,13 @@
         <v>130805</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8675,13 +8657,13 @@
         <v>4120</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -8690,13 +8672,13 @@
         <v>2719</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -8705,13 +8687,13 @@
         <v>6840</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>656</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8726,13 +8708,13 @@
         <v>11782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>649</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -8741,13 +8723,13 @@
         <v>5897</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -8756,13 +8738,13 @@
         <v>17679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8783,7 +8765,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -8792,13 +8774,13 @@
         <v>31182</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -8807,13 +8789,13 @@
         <v>31182</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8828,13 +8810,13 @@
         <v>80652</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -8843,13 +8825,13 @@
         <v>37628</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -8858,13 +8840,13 @@
         <v>118279</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8920,7 +8902,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8932,13 +8914,13 @@
         <v>2887</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -8947,13 +8929,13 @@
         <v>28501</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -8962,13 +8944,13 @@
         <v>31388</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>687</v>
+        <v>253</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8983,13 +8965,13 @@
         <v>8555</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -8998,13 +8980,13 @@
         <v>1849</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>692</v>
+        <v>434</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>693</v>
+        <v>464</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -9013,13 +8995,13 @@
         <v>10404</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>154</v>
+        <v>682</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>694</v>
+        <v>416</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>695</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9040,7 +9022,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -9049,13 +9031,13 @@
         <v>11234</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>118</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -9064,13 +9046,13 @@
         <v>11233</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9085,13 +9067,13 @@
         <v>55276</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="H27" s="7">
         <v>15</v>
@@ -9100,13 +9082,13 @@
         <v>15614</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>224</v>
+        <v>692</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="M27" s="7">
         <v>74</v>
@@ -9115,13 +9097,13 @@
         <v>70890</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9189,13 +9171,13 @@
         <v>3178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>546</v>
+        <v>699</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>247</v>
+        <v>700</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -9204,13 +9186,13 @@
         <v>3331</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>403</v>
+        <v>702</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -9219,13 +9201,13 @@
         <v>6509</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>704</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9240,13 +9222,13 @@
         <v>6664</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>715</v>
+        <v>152</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -9261,7 +9243,7 @@
         <v>23</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -9270,13 +9252,13 @@
         <v>6664</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9306,13 +9288,13 @@
         <v>25978</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -9321,13 +9303,13 @@
         <v>25978</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9342,13 +9324,13 @@
         <v>64096</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -9357,13 +9339,13 @@
         <v>14985</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="M32" s="7">
         <v>81</v>
@@ -9372,13 +9354,13 @@
         <v>79081</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9446,13 +9428,13 @@
         <v>9682</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -9461,13 +9443,13 @@
         <v>20355</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="M34" s="7">
         <v>27</v>
@@ -9476,13 +9458,13 @@
         <v>30037</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9497,13 +9479,13 @@
         <v>9384</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>745</v>
+        <v>625</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -9512,13 +9494,13 @@
         <v>11133</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>55</v>
+        <v>739</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="M35" s="7">
         <v>17</v>
@@ -9527,13 +9509,13 @@
         <v>20518</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>424</v>
+        <v>744</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9554,7 +9536,7 @@
         <v>23</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H36" s="7">
         <v>45</v>
@@ -9563,13 +9545,13 @@
         <v>53066</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="M36" s="7">
         <v>45</v>
@@ -9578,13 +9560,13 @@
         <v>53066</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>756</v>
+        <v>716</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9599,13 +9581,13 @@
         <v>134611</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="H37" s="7">
         <v>58</v>
@@ -9614,13 +9596,13 @@
         <v>68144</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>684</v>
+        <v>754</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>286</v>
+        <v>755</v>
       </c>
       <c r="M37" s="7">
         <v>184</v>
@@ -9629,13 +9611,13 @@
         <v>202755</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,7 +9673,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -9703,13 +9685,13 @@
         <v>9033</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>412</v>
+        <v>759</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>764</v>
+        <v>272</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>443</v>
+        <v>760</v>
       </c>
       <c r="H39" s="7">
         <v>21</v>
@@ -9718,13 +9700,13 @@
         <v>23568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>437</v>
+        <v>762</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="M39" s="7">
         <v>29</v>
@@ -9733,13 +9715,13 @@
         <v>32601</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>768</v>
+        <v>178</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9754,13 +9736,13 @@
         <v>33508</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="H40" s="7">
         <v>18</v>
@@ -9769,13 +9751,13 @@
         <v>20230</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>126</v>
+        <v>769</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="M40" s="7">
         <v>48</v>
@@ -9784,13 +9766,13 @@
         <v>53738</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>316</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9811,7 +9793,7 @@
         <v>23</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>17</v>
+        <v>775</v>
       </c>
       <c r="H41" s="7">
         <v>44</v>
@@ -9820,13 +9802,13 @@
         <v>53907</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>778</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>779</v>
       </c>
       <c r="M41" s="7">
         <v>44</v>
@@ -9835,13 +9817,13 @@
         <v>53907</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>602</v>
+        <v>779</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>533</v>
+        <v>780</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9856,13 +9838,13 @@
         <v>171041</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H42" s="7">
         <v>67</v>
@@ -9871,10 +9853,10 @@
         <v>81220</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>785</v>
+        <v>156</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>786</v>
@@ -9963,10 +9945,10 @@
         <v>790</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>14</v>
+        <v>791</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H44" s="7">
         <v>99</v>
@@ -9975,13 +9957,13 @@
         <v>108387</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M44" s="7">
         <v>154</v>
@@ -9990,13 +9972,13 @@
         <v>167759</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10011,13 +9993,13 @@
         <v>88308</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>798</v>
+        <v>597</v>
       </c>
       <c r="H45" s="7">
         <v>48</v>
@@ -10029,10 +10011,10 @@
         <v>799</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>800</v>
+        <v>465</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>801</v>
+        <v>686</v>
       </c>
       <c r="M45" s="7">
         <v>128</v>
@@ -10041,13 +10023,13 @@
         <v>140943</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>803</v>
+        <v>177</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10062,13 +10044,13 @@
         <v>935</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H46" s="7">
         <v>216</v>
@@ -10077,13 +10059,13 @@
         <v>259660</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="M46" s="7">
         <v>217</v>
@@ -10092,13 +10074,13 @@
         <v>260594</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>810</v>
+        <v>15</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>811</v>
+        <v>595</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>812</v>
+        <v>774</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10113,13 +10095,13 @@
         <v>752619</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="H47" s="7">
         <v>273</v>
@@ -10128,13 +10110,13 @@
         <v>316360</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="M47" s="7">
         <v>1039</v>
@@ -10143,13 +10125,13 @@
         <v>1068979</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P62AS1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P62AS1-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C16A6D1-CF9C-44B7-BC36-639FB65CE5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACF9E761-5B4D-42DA-BBE1-038A4BEF6437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AEA55145-AF15-45E1-80FF-0179AD7010D1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{485A4C9B-E43E-4A37-A4D4-38C3D4AC0491}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="826">
   <si>
     <t>Población según el tipo de pensión que recibe / respuesta 1 en 2007 (Tasa respuesta: 20,17%)</t>
   </si>
@@ -79,2410 +79,2443 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,89%</t>
+    <t>8,75%</t>
   </si>
   <si>
     <t>5,02%</t>
   </si>
   <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>Invalidez o incapacidad permanente</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>Viudedad</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>Jubilacion</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2016 (Tasa respuesta: 23,41%)</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>Invalidez o incapacidad permanente</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>Viudedad</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>Jubilacion</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2015 (Tasa respuesta: 23,41%)</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>42,92%</t>
   </si>
   <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
   </si>
   <si>
     <t>65,25%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
   </si>
 </sst>
 </file>
@@ -2894,7 +2927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D209E9-6FC4-4D3B-86B6-1F870CDE7948}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B120689-CD21-4F85-AF32-17269BA83EDB}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3873,10 +3906,10 @@
         <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,7 +3930,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -3906,13 +3939,13 @@
         <v>28246</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -3921,10 +3954,10 @@
         <v>28246</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>134</v>
@@ -4184,7 +4217,7 @@
         <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4232,13 @@
         <v>39863</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -4214,13 +4247,13 @@
         <v>12962</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M27" s="7">
         <v>55</v>
@@ -4229,13 +4262,13 @@
         <v>52825</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,7 +4324,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4303,13 +4336,13 @@
         <v>1064</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4318,13 +4351,13 @@
         <v>2700</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -4333,13 +4366,13 @@
         <v>3764</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,7 +4393,7 @@
         <v>23</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -4369,13 +4402,13 @@
         <v>2033</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M30" s="7">
         <v>2</v>
@@ -4384,13 +4417,13 @@
         <v>2033</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4438,13 @@
         <v>1061</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -4420,13 +4453,13 @@
         <v>27925</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -4435,13 +4468,13 @@
         <v>28986</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4489,13 @@
         <v>61089</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -4471,13 +4504,13 @@
         <v>14869</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M32" s="7">
         <v>77</v>
@@ -4486,13 +4519,13 @@
         <v>75958</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,7 +4581,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4566,7 +4599,7 @@
         <v>23</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -4575,10 +4608,10 @@
         <v>4235</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>207</v>
@@ -4596,7 +4629,7 @@
         <v>208</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4644,13 @@
         <v>9369</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -4626,13 +4659,13 @@
         <v>9861</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M35" s="7">
         <v>19</v>
@@ -4641,13 +4674,13 @@
         <v>19230</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,7 +4701,7 @@
         <v>23</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H36" s="7">
         <v>55</v>
@@ -4677,13 +4710,13 @@
         <v>57203</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M36" s="7">
         <v>55</v>
@@ -4692,13 +4725,13 @@
         <v>57203</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4746,13 @@
         <v>133458</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H37" s="7">
         <v>48</v>
@@ -4728,13 +4761,13 @@
         <v>47628</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M37" s="7">
         <v>184</v>
@@ -4743,13 +4776,13 @@
         <v>181087</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,7 +4838,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4823,7 +4856,7 @@
         <v>23</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -4832,13 +4865,13 @@
         <v>4581</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M39" s="7">
         <v>4</v>
@@ -4847,13 +4880,13 @@
         <v>4581</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,13 +4901,13 @@
         <v>23544</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H40" s="7">
         <v>12</v>
@@ -4883,13 +4916,13 @@
         <v>13060</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M40" s="7">
         <v>34</v>
@@ -4898,13 +4931,13 @@
         <v>36604</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4952,13 @@
         <v>965</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H41" s="7">
         <v>48</v>
@@ -4934,13 +4967,13 @@
         <v>52280</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M41" s="7">
         <v>49</v>
@@ -4949,13 +4982,13 @@
         <v>53245</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>255</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5107,13 @@
         <v>6458</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H44" s="7">
         <v>26</v>
@@ -5089,13 +5122,13 @@
         <v>27202</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M44" s="7">
         <v>33</v>
@@ -5104,13 +5137,13 @@
         <v>33660</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5158,13 @@
         <v>72092</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H45" s="7">
         <v>46</v>
@@ -5140,13 +5173,13 @@
         <v>47411</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M45" s="7">
         <v>116</v>
@@ -5155,13 +5188,13 @@
         <v>119503</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="Q45" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5209,13 @@
         <v>2025</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H46" s="7">
         <v>267</v>
@@ -5191,13 +5224,13 @@
         <v>280443</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M46" s="7">
         <v>269</v>
@@ -5206,7 +5239,7 @@
         <v>282468</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>288</v>
@@ -5343,7 +5376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6625729C-0E6E-4FF9-BEBE-8640B2B67972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2373B0E6-4AAA-4DF0-9A80-FAD576B4A857}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6020,10 +6053,10 @@
         <v>349</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M15" s="7">
         <v>15</v>
@@ -6032,13 +6065,13 @@
         <v>17245</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6086,13 @@
         <v>2075</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -6068,13 +6101,13 @@
         <v>38393</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -6083,13 +6116,13 @@
         <v>40469</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6137,13 @@
         <v>63187</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -6119,13 +6152,13 @@
         <v>27377</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -6134,13 +6167,13 @@
         <v>90564</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,10 +6241,10 @@
         <v>19792</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>371</v>
@@ -6343,10 +6376,10 @@
         <v>391</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>392</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>241</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6394,13 @@
         <v>130993</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -6376,13 +6409,13 @@
         <v>69280</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
@@ -6391,13 +6424,13 @@
         <v>200273</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,13 +6498,13 @@
         <v>3960</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -6480,13 +6513,13 @@
         <v>6886</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -6495,13 +6528,13 @@
         <v>10846</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,13 +6549,13 @@
         <v>5388</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>412</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>408</v>
+        <v>26</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -6531,13 +6564,13 @@
         <v>4985</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -6546,13 +6579,13 @@
         <v>10373</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,7 +6606,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -6582,13 +6615,13 @@
         <v>16526</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -6597,13 +6630,13 @@
         <v>16526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>420</v>
+        <v>248</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6651,13 @@
         <v>40606</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>425</v>
+        <v>102</v>
       </c>
       <c r="H27" s="7">
         <v>17</v>
@@ -6633,13 +6666,13 @@
         <v>18622</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M27" s="7">
         <v>53</v>
@@ -6648,13 +6681,13 @@
         <v>59228</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6710,7 +6743,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6722,13 +6755,13 @@
         <v>1036</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>350</v>
+        <v>434</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -6737,13 +6770,13 @@
         <v>4965</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>433</v>
+        <v>236</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -6752,13 +6785,13 @@
         <v>6001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,13 +6806,13 @@
         <v>11222</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>348</v>
+        <v>443</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -6788,13 +6821,13 @@
         <v>2103</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -6803,13 +6836,13 @@
         <v>13325</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6830,7 +6863,7 @@
         <v>23</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="H31" s="7">
         <v>33</v>
@@ -6839,13 +6872,13 @@
         <v>33710</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M31" s="7">
         <v>33</v>
@@ -6854,13 +6887,13 @@
         <v>33709</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,13 +6908,13 @@
         <v>62064</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -6890,13 +6923,13 @@
         <v>19330</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M32" s="7">
         <v>79</v>
@@ -6905,13 +6938,13 @@
         <v>81394</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,7 +7000,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6979,13 +7012,13 @@
         <v>12097</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>461</v>
+        <v>315</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="H34" s="7">
         <v>13</v>
@@ -6994,13 +7027,13 @@
         <v>14549</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>125</v>
+        <v>469</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -7009,13 +7042,13 @@
         <v>26646</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>63</v>
+        <v>470</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,13 +7063,13 @@
         <v>23392</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>311</v>
+        <v>475</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -7045,13 +7078,13 @@
         <v>16497</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="M35" s="7">
         <v>34</v>
@@ -7060,13 +7093,13 @@
         <v>39889</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>473</v>
+        <v>318</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>474</v>
+        <v>113</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,7 +7120,7 @@
         <v>23</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H36" s="7">
         <v>55</v>
@@ -7096,13 +7129,13 @@
         <v>60393</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="M36" s="7">
         <v>55</v>
@@ -7111,13 +7144,13 @@
         <v>60393</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7165,13 @@
         <v>123615</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="H37" s="7">
         <v>52</v>
@@ -7147,13 +7180,13 @@
         <v>58703</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="M37" s="7">
         <v>163</v>
@@ -7162,13 +7195,13 @@
         <v>182317</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,7 +7257,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -7236,13 +7269,13 @@
         <v>10397</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H39" s="7">
         <v>19</v>
@@ -7251,13 +7284,13 @@
         <v>19451</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M39" s="7">
         <v>29</v>
@@ -7266,13 +7299,13 @@
         <v>29848</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,13 +7320,13 @@
         <v>34637</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H40" s="7">
         <v>19</v>
@@ -7302,13 +7335,13 @@
         <v>20732</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>438</v>
+        <v>508</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M40" s="7">
         <v>49</v>
@@ -7317,13 +7350,13 @@
         <v>55369</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,7 +7377,7 @@
         <v>23</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H41" s="7">
         <v>51</v>
@@ -7353,13 +7386,13 @@
         <v>55856</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="M41" s="7">
         <v>51</v>
@@ -7368,13 +7401,13 @@
         <v>55856</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>153</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,13 +7422,13 @@
         <v>149650</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="H42" s="7">
         <v>53</v>
@@ -7404,13 +7437,13 @@
         <v>58815</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="M42" s="7">
         <v>184</v>
@@ -7419,13 +7452,13 @@
         <v>208464</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7493,13 +7526,13 @@
         <v>59271</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>315</v>
+        <v>528</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>117</v>
+        <v>529</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="H44" s="7">
         <v>88</v>
@@ -7508,13 +7541,13 @@
         <v>96076</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="M44" s="7">
         <v>140</v>
@@ -7526,10 +7559,10 @@
         <v>59</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>406</v>
+        <v>535</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7544,13 +7577,13 @@
         <v>142949</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>530</v>
+        <v>358</v>
       </c>
       <c r="H45" s="7">
         <v>68</v>
@@ -7559,13 +7592,13 @@
         <v>77392</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="M45" s="7">
         <v>197</v>
@@ -7574,13 +7607,13 @@
         <v>220341</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,13 +7628,13 @@
         <v>3039</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="H46" s="7">
         <v>285</v>
@@ -7610,13 +7643,13 @@
         <v>306632</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="M46" s="7">
         <v>287</v>
@@ -7625,13 +7658,13 @@
         <v>309671</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7679,13 @@
         <v>665857</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="H47" s="7">
         <v>246</v>
@@ -7661,13 +7694,13 @@
         <v>265986</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>455</v>
+        <v>556</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="M47" s="7">
         <v>849</v>
@@ -7676,13 +7709,13 @@
         <v>931843</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7762,7 +7795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C43475C-B17A-41A4-84F2-373A8E1DF55F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5DF185-A7D3-4E33-A83A-9C035741EDC7}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7779,7 +7812,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7886,13 +7919,13 @@
         <v>11199</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>553</v>
+        <v>358</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -7901,13 +7934,13 @@
         <v>16211</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -7916,13 +7949,13 @@
         <v>27410</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7943,7 +7976,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>562</v>
+        <v>436</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -7952,13 +7985,13 @@
         <v>3846</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>564</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>565</v>
+        <v>15</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -7967,13 +8000,13 @@
         <v>3846</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7994,7 +8027,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>562</v>
+        <v>436</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -8003,13 +8036,13 @@
         <v>10997</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -8018,13 +8051,13 @@
         <v>10997</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>573</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8039,13 +8072,13 @@
         <v>47053</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -8054,13 +8087,13 @@
         <v>23921</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="M7" s="7">
         <v>69</v>
@@ -8069,13 +8102,13 @@
         <v>70974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8143,13 +8176,13 @@
         <v>18302</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>214</v>
+        <v>588</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -8158,13 +8191,13 @@
         <v>6219</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -8173,13 +8206,13 @@
         <v>24521</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8194,13 +8227,13 @@
         <v>12645</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>590</v>
+        <v>508</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -8209,13 +8242,13 @@
         <v>6399</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -8224,13 +8257,13 @@
         <v>19044</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>597</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8251,7 +8284,7 @@
         <v>23</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -8260,13 +8293,13 @@
         <v>52702</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -8275,13 +8308,13 @@
         <v>52702</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8296,13 +8329,13 @@
         <v>117624</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -8311,13 +8344,13 @@
         <v>26312</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>154</v>
+        <v>612</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="M12" s="7">
         <v>140</v>
@@ -8326,13 +8359,13 @@
         <v>143937</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8400,13 +8433,13 @@
         <v>969</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -8415,13 +8448,13 @@
         <v>7483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>614</v>
+        <v>498</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>411</v>
+        <v>619</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -8430,13 +8463,13 @@
         <v>8452</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8451,13 +8484,13 @@
         <v>5770</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>619</v>
+        <v>186</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -8466,13 +8499,13 @@
         <v>3280</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>622</v>
+        <v>338</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -8481,13 +8514,13 @@
         <v>9050</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>525</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8502,13 +8535,13 @@
         <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -8517,13 +8550,13 @@
         <v>20595</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -8532,13 +8565,13 @@
         <v>21530</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8553,13 +8586,13 @@
         <v>82267</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -8568,13 +8601,13 @@
         <v>48537</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>642</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="M17" s="7">
         <v>132</v>
@@ -8583,13 +8616,13 @@
         <v>130805</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8657,13 +8690,13 @@
         <v>4120</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -8672,13 +8705,13 @@
         <v>2719</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -8687,13 +8720,13 @@
         <v>6840</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>652</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8708,13 +8741,13 @@
         <v>11782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>649</v>
+        <v>503</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -8723,13 +8756,13 @@
         <v>5897</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -8738,13 +8771,13 @@
         <v>17679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>302</v>
+        <v>661</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8765,7 +8798,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -8774,13 +8807,13 @@
         <v>31182</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -8792,10 +8825,10 @@
         <v>317</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8810,13 +8843,13 @@
         <v>80652</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -8825,13 +8858,13 @@
         <v>37628</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="M22" s="7">
         <v>118</v>
@@ -8840,13 +8873,13 @@
         <v>118279</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8914,13 +8947,13 @@
         <v>2887</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>350</v>
+        <v>679</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -8929,13 +8962,13 @@
         <v>28501</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="M24" s="7">
         <v>29</v>
@@ -8944,13 +8977,13 @@
         <v>31388</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>253</v>
+        <v>685</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8965,13 +8998,13 @@
         <v>8555</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -8980,13 +9013,13 @@
         <v>1849</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>690</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>464</v>
+        <v>691</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -8995,13 +9028,13 @@
         <v>10404</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>416</v>
+        <v>693</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9022,7 +9055,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -9031,13 +9064,13 @@
         <v>11234</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>697</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -9046,13 +9079,13 @@
         <v>11233</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9067,13 +9100,13 @@
         <v>55276</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="H27" s="7">
         <v>15</v>
@@ -9082,13 +9115,13 @@
         <v>15614</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="M27" s="7">
         <v>74</v>
@@ -9097,13 +9130,13 @@
         <v>70890</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>696</v>
+        <v>284</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9159,7 +9192,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -9171,13 +9204,13 @@
         <v>3178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -9186,13 +9219,13 @@
         <v>3331</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -9201,13 +9234,13 @@
         <v>6509</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9222,13 +9255,13 @@
         <v>6664</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>152</v>
+        <v>720</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -9243,7 +9276,7 @@
         <v>23</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -9252,13 +9285,13 @@
         <v>6664</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9288,13 +9321,13 @@
         <v>25978</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -9303,13 +9336,13 @@
         <v>25978</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9324,13 +9357,13 @@
         <v>64096</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -9339,13 +9372,13 @@
         <v>14985</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="M32" s="7">
         <v>81</v>
@@ -9354,13 +9387,13 @@
         <v>79081</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9416,7 +9449,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9428,13 +9461,13 @@
         <v>9682</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>729</v>
+        <v>94</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>730</v>
+        <v>373</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -9443,13 +9476,13 @@
         <v>20355</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="M34" s="7">
         <v>27</v>
@@ -9458,13 +9491,13 @@
         <v>30037</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>736</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9479,13 +9512,13 @@
         <v>9384</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>625</v>
+        <v>748</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -9494,13 +9527,13 @@
         <v>11133</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
       <c r="M35" s="7">
         <v>17</v>
@@ -9509,13 +9542,13 @@
         <v>20518</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>743</v>
+        <v>209</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9536,7 +9569,7 @@
         <v>23</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H36" s="7">
         <v>45</v>
@@ -9545,13 +9578,13 @@
         <v>53066</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="M36" s="7">
         <v>45</v>
@@ -9560,13 +9593,13 @@
         <v>53066</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>716</v>
+        <v>760</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9581,13 +9614,13 @@
         <v>134611</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="H37" s="7">
         <v>58</v>
@@ -9596,13 +9629,13 @@
         <v>68144</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="M37" s="7">
         <v>184</v>
@@ -9611,13 +9644,13 @@
         <v>202755</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>756</v>
+        <v>368</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9673,7 +9706,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -9685,13 +9718,13 @@
         <v>9033</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>272</v>
+        <v>770</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="H39" s="7">
         <v>21</v>
@@ -9700,13 +9733,13 @@
         <v>23568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="M39" s="7">
         <v>29</v>
@@ -9715,13 +9748,13 @@
         <v>32601</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>178</v>
+        <v>776</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>765</v>
+        <v>712</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9736,13 +9769,13 @@
         <v>33508</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="H40" s="7">
         <v>18</v>
@@ -9751,13 +9784,13 @@
         <v>20230</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
       <c r="M40" s="7">
         <v>48</v>
@@ -9766,13 +9799,13 @@
         <v>53738</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>772</v>
+        <v>353</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9793,7 +9826,7 @@
         <v>23</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="H41" s="7">
         <v>44</v>
@@ -9802,13 +9835,13 @@
         <v>53907</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>777</v>
+        <v>416</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="M41" s="7">
         <v>44</v>
@@ -9817,13 +9850,13 @@
         <v>53907</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9838,13 +9871,13 @@
         <v>171041</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="H42" s="7">
         <v>67</v>
@@ -9853,13 +9886,13 @@
         <v>81220</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>156</v>
+        <v>795</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="M42" s="7">
         <v>241</v>
@@ -9868,13 +9901,13 @@
         <v>252260</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9942,13 +9975,13 @@
         <v>59372</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>790</v>
+        <v>594</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>791</v>
+        <v>117</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>792</v>
+        <v>508</v>
       </c>
       <c r="H44" s="7">
         <v>99</v>
@@ -9957,13 +9990,13 @@
         <v>108387</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>245</v>
+        <v>801</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="M44" s="7">
         <v>154</v>
@@ -9972,13 +10005,13 @@
         <v>167759</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9993,13 +10026,13 @@
         <v>88308</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>597</v>
+        <v>807</v>
       </c>
       <c r="H45" s="7">
         <v>48</v>
@@ -10008,13 +10041,13 @@
         <v>52635</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>686</v>
+        <v>332</v>
       </c>
       <c r="M45" s="7">
         <v>128</v>
@@ -10023,13 +10056,13 @@
         <v>140943</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>177</v>
+        <v>781</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10044,13 +10077,13 @@
         <v>935</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="H46" s="7">
         <v>216</v>
@@ -10059,13 +10092,13 @@
         <v>259660</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="M46" s="7">
         <v>217</v>
@@ -10074,13 +10107,13 @@
         <v>260594</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>15</v>
+        <v>816</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>595</v>
+        <v>240</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>774</v>
+        <v>817</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10095,13 +10128,13 @@
         <v>752619</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="H47" s="7">
         <v>273</v>
@@ -10110,13 +10143,13 @@
         <v>316360</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="M47" s="7">
         <v>1039</v>
@@ -10125,13 +10158,13 @@
         <v>1068979</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
